--- a/data/Diss.xlsx
+++ b/data/Diss.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qtckp\OneDrive\Рабочий стол\ScheduleGenetic\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A21EFD-A3C7-4C9A-A864-5C6E0C90A694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF62475-E28E-4838-8C3B-6A10FA5017B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{2515F797-AE4E-4146-B81A-561A40094389}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{2515F797-AE4E-4146-B81A-561A40094389}"/>
   </bookViews>
   <sheets>
-    <sheet name="Расписания" sheetId="3" r:id="rId1"/>
+    <sheet name="Timeslots" sheetId="3" r:id="rId1"/>
     <sheet name="Schedule teachers" sheetId="8" r:id="rId2"/>
     <sheet name="Schedule places" sheetId="6" r:id="rId3"/>
     <sheet name="Schedule groups" sheetId="7" r:id="rId4"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="80">
   <si>
     <t>Номер</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>№</t>
-  </si>
-  <si>
-    <t>Расписание группы</t>
   </si>
   <si>
     <t>Расписание Аудиторий</t>
@@ -440,6 +437,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -450,9 +450,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -771,7 +768,7 @@
   <dimension ref="A2:AY72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I50" sqref="I50:AY62"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,15 +781,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
+      <c r="A2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -977,228 +974,6 @@
       <c r="G10" s="5">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>1</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>2</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>4</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>5</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>6</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>7</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>1</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>2</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>3</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>4</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>5</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
-        <v>6</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <v>7</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
     </row>
     <row r="63" spans="9:51" x14ac:dyDescent="0.25">
       <c r="I63" s="2"/>
@@ -1651,10 +1426,8 @@
       <c r="AY72" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1672,56 +1445,56 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14"/>
-      <c r="AE3" s="14"/>
-      <c r="AF3" s="14"/>
-      <c r="AG3" s="14"/>
-      <c r="AH3" s="14"/>
-      <c r="AI3" s="14"/>
-      <c r="AJ3" s="14"/>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="14"/>
-      <c r="AN3" s="14"/>
-      <c r="AO3" s="14"/>
-      <c r="AP3" s="14"/>
-      <c r="AQ3" s="14"/>
-      <c r="AR3" s="14"/>
+      <c r="B3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="15"/>
+      <c r="AO3" s="15"/>
+      <c r="AP3" s="15"/>
+      <c r="AQ3" s="15"/>
+      <c r="AR3" s="15"/>
     </row>
     <row r="4" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -1767,7 +1540,7 @@
     </row>
     <row r="5" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -1898,7 +1671,7 @@
     </row>
     <row r="6" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1947,7 +1720,7 @@
     </row>
     <row r="7" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1994,7 +1767,7 @@
     </row>
     <row r="8" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -2041,7 +1814,7 @@
     </row>
     <row r="9" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -2092,7 +1865,7 @@
     </row>
     <row r="10" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -2141,7 +1914,7 @@
     </row>
     <row r="11" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -2188,7 +1961,7 @@
     </row>
     <row r="12" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -2237,7 +2010,7 @@
     </row>
     <row r="13" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -2286,7 +2059,7 @@
     </row>
     <row r="14" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -2333,7 +2106,7 @@
     </row>
     <row r="15" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5">
@@ -2399,56 +2172,56 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="16"/>
-      <c r="AI2" s="16"/>
-      <c r="AJ2" s="16"/>
-      <c r="AK2" s="16"/>
-      <c r="AL2" s="16"/>
-      <c r="AM2" s="16"/>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="16"/>
-      <c r="AQ2" s="16"/>
-      <c r="AR2" s="17"/>
+      <c r="B2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="17"/>
+      <c r="AM2" s="17"/>
+      <c r="AN2" s="17"/>
+      <c r="AO2" s="17"/>
+      <c r="AP2" s="17"/>
+      <c r="AQ2" s="17"/>
+      <c r="AR2" s="18"/>
     </row>
     <row r="3" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -2494,7 +2267,7 @@
     </row>
     <row r="4" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
@@ -3585,65 +3358,65 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC32F5DF-50E3-4F6E-8306-2CB8A2B75C8A}">
-  <dimension ref="B3:AR25"/>
+  <dimension ref="B3:AR12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S33" sqref="S33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="16"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="16"/>
-      <c r="AG3" s="16"/>
-      <c r="AH3" s="16"/>
-      <c r="AI3" s="16"/>
-      <c r="AJ3" s="16"/>
-      <c r="AK3" s="16"/>
-      <c r="AL3" s="16"/>
-      <c r="AM3" s="16"/>
-      <c r="AN3" s="16"/>
-      <c r="AO3" s="16"/>
-      <c r="AP3" s="16"/>
-      <c r="AQ3" s="16"/>
-      <c r="AR3" s="17"/>
+      <c r="B3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="17"/>
+      <c r="AG3" s="17"/>
+      <c r="AH3" s="17"/>
+      <c r="AI3" s="17"/>
+      <c r="AJ3" s="17"/>
+      <c r="AK3" s="17"/>
+      <c r="AL3" s="17"/>
+      <c r="AM3" s="17"/>
+      <c r="AN3" s="17"/>
+      <c r="AO3" s="17"/>
+      <c r="AP3" s="17"/>
+      <c r="AQ3" s="17"/>
+      <c r="AR3" s="18"/>
     </row>
     <row r="4" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -3689,7 +3462,7 @@
     </row>
     <row r="5" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -3917,9 +3690,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
+      <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -4062,9 +3833,7 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
+      <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -4074,9 +3843,7 @@
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
-      <c r="P11" s="5">
-        <v>0</v>
-      </c>
+      <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
@@ -4153,627 +3920,6 @@
       <c r="AQ12" s="5"/>
       <c r="AR12" s="5"/>
     </row>
-    <row r="13" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B13" s="6">
-        <v>8</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="5"/>
-      <c r="AG13" s="5"/>
-      <c r="AH13" s="5"/>
-      <c r="AI13" s="5"/>
-      <c r="AJ13" s="5"/>
-      <c r="AK13" s="5"/>
-      <c r="AL13" s="5"/>
-      <c r="AM13" s="5"/>
-      <c r="AN13" s="5"/>
-      <c r="AO13" s="5"/>
-      <c r="AP13" s="5"/>
-      <c r="AQ13" s="5"/>
-      <c r="AR13" s="5"/>
-    </row>
-    <row r="14" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B14" s="6">
-        <v>9</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5">
-        <v>0</v>
-      </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="5"/>
-      <c r="AG14" s="5"/>
-      <c r="AH14" s="5"/>
-      <c r="AI14" s="5"/>
-      <c r="AJ14" s="5"/>
-      <c r="AK14" s="5"/>
-      <c r="AL14" s="5"/>
-      <c r="AM14" s="5"/>
-      <c r="AN14" s="5"/>
-      <c r="AO14" s="5"/>
-      <c r="AP14" s="5"/>
-      <c r="AQ14" s="5"/>
-      <c r="AR14" s="5"/>
-    </row>
-    <row r="15" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B15" s="6">
-        <v>10</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="5"/>
-      <c r="AF15" s="5"/>
-      <c r="AG15" s="5"/>
-      <c r="AH15" s="5"/>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="5"/>
-      <c r="AK15" s="5"/>
-      <c r="AL15" s="5"/>
-      <c r="AM15" s="5"/>
-      <c r="AN15" s="5"/>
-      <c r="AO15" s="5"/>
-      <c r="AP15" s="5"/>
-      <c r="AQ15" s="5"/>
-      <c r="AR15" s="5"/>
-    </row>
-    <row r="16" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B16" s="6">
-        <v>11</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="5"/>
-      <c r="AF16" s="5"/>
-      <c r="AG16" s="5"/>
-      <c r="AH16" s="5"/>
-      <c r="AI16" s="5"/>
-      <c r="AJ16" s="5"/>
-      <c r="AK16" s="5"/>
-      <c r="AL16" s="5"/>
-      <c r="AM16" s="5"/>
-      <c r="AN16" s="5"/>
-      <c r="AO16" s="5"/>
-      <c r="AP16" s="5"/>
-      <c r="AQ16" s="5"/>
-      <c r="AR16" s="5"/>
-    </row>
-    <row r="17" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B17" s="6">
-        <v>12</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="5"/>
-      <c r="AF17" s="5"/>
-      <c r="AG17" s="5"/>
-      <c r="AH17" s="5"/>
-      <c r="AI17" s="5"/>
-      <c r="AJ17" s="5"/>
-      <c r="AK17" s="5"/>
-      <c r="AL17" s="5"/>
-      <c r="AM17" s="5"/>
-      <c r="AN17" s="5"/>
-      <c r="AO17" s="5"/>
-      <c r="AP17" s="5"/>
-      <c r="AQ17" s="5"/>
-      <c r="AR17" s="5"/>
-    </row>
-    <row r="18" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B18" s="6">
-        <v>13</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
-      <c r="AD18" s="5"/>
-      <c r="AE18" s="5"/>
-      <c r="AF18" s="5"/>
-      <c r="AG18" s="5"/>
-      <c r="AH18" s="5"/>
-      <c r="AI18" s="5"/>
-      <c r="AJ18" s="5"/>
-      <c r="AK18" s="5"/>
-      <c r="AL18" s="5"/>
-      <c r="AM18" s="5"/>
-      <c r="AN18" s="5"/>
-      <c r="AO18" s="5"/>
-      <c r="AP18" s="5"/>
-      <c r="AQ18" s="5"/>
-      <c r="AR18" s="5"/>
-    </row>
-    <row r="19" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B19" s="6">
-        <v>14</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5">
-        <v>0</v>
-      </c>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="5"/>
-      <c r="AF19" s="5"/>
-      <c r="AG19" s="5"/>
-      <c r="AH19" s="5"/>
-      <c r="AI19" s="5"/>
-      <c r="AJ19" s="5"/>
-      <c r="AK19" s="5"/>
-      <c r="AL19" s="5"/>
-      <c r="AM19" s="5"/>
-      <c r="AN19" s="5"/>
-      <c r="AO19" s="5"/>
-      <c r="AP19" s="5"/>
-      <c r="AQ19" s="5"/>
-      <c r="AR19" s="5"/>
-    </row>
-    <row r="20" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B20" s="6">
-        <v>15</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="5"/>
-      <c r="AF20" s="5"/>
-      <c r="AG20" s="5"/>
-      <c r="AH20" s="5"/>
-      <c r="AI20" s="5"/>
-      <c r="AJ20" s="5"/>
-      <c r="AK20" s="5"/>
-      <c r="AL20" s="5"/>
-      <c r="AM20" s="5"/>
-      <c r="AN20" s="5"/>
-      <c r="AO20" s="5"/>
-      <c r="AP20" s="5"/>
-      <c r="AQ20" s="5"/>
-      <c r="AR20" s="5"/>
-    </row>
-    <row r="21" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B21" s="6">
-        <v>16</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5">
-        <v>0</v>
-      </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="5"/>
-      <c r="AD21" s="5"/>
-      <c r="AE21" s="5"/>
-      <c r="AF21" s="5"/>
-      <c r="AG21" s="5"/>
-      <c r="AH21" s="5"/>
-      <c r="AI21" s="5"/>
-      <c r="AJ21" s="5"/>
-      <c r="AK21" s="5"/>
-      <c r="AL21" s="5"/>
-      <c r="AM21" s="5"/>
-      <c r="AN21" s="5"/>
-      <c r="AO21" s="5"/>
-      <c r="AP21" s="5"/>
-      <c r="AQ21" s="5"/>
-      <c r="AR21" s="5"/>
-    </row>
-    <row r="22" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B22" s="6">
-        <v>17</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="5"/>
-      <c r="AE22" s="5"/>
-      <c r="AF22" s="5"/>
-      <c r="AG22" s="5"/>
-      <c r="AH22" s="5"/>
-      <c r="AI22" s="5"/>
-      <c r="AJ22" s="5"/>
-      <c r="AK22" s="5"/>
-      <c r="AL22" s="5"/>
-      <c r="AM22" s="5"/>
-      <c r="AN22" s="5"/>
-      <c r="AO22" s="5"/>
-      <c r="AP22" s="5"/>
-      <c r="AQ22" s="5"/>
-      <c r="AR22" s="5"/>
-    </row>
-    <row r="23" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B23" s="6">
-        <v>18</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="5"/>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="5"/>
-      <c r="AF23" s="5"/>
-      <c r="AG23" s="5"/>
-      <c r="AH23" s="5"/>
-      <c r="AI23" s="5"/>
-      <c r="AJ23" s="5"/>
-      <c r="AK23" s="5"/>
-      <c r="AL23" s="5"/>
-      <c r="AM23" s="5"/>
-      <c r="AN23" s="5"/>
-      <c r="AO23" s="5"/>
-      <c r="AP23" s="5"/>
-      <c r="AQ23" s="5"/>
-      <c r="AR23" s="5"/>
-    </row>
-    <row r="24" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B24" s="6">
-        <v>19</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="5"/>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="5"/>
-      <c r="AF24" s="5"/>
-      <c r="AG24" s="5"/>
-      <c r="AH24" s="5"/>
-      <c r="AI24" s="5"/>
-      <c r="AJ24" s="5"/>
-      <c r="AK24" s="5"/>
-      <c r="AL24" s="5"/>
-      <c r="AM24" s="5"/>
-      <c r="AN24" s="5"/>
-      <c r="AO24" s="5"/>
-      <c r="AP24" s="5"/>
-      <c r="AQ24" s="5"/>
-      <c r="AR24" s="5"/>
-    </row>
-    <row r="25" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B25" s="6">
-        <v>20</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="5"/>
-      <c r="AD25" s="5"/>
-      <c r="AE25" s="5"/>
-      <c r="AF25" s="5"/>
-      <c r="AG25" s="5"/>
-      <c r="AH25" s="5"/>
-      <c r="AI25" s="5"/>
-      <c r="AJ25" s="5"/>
-      <c r="AK25" s="5"/>
-      <c r="AL25" s="5"/>
-      <c r="AM25" s="5"/>
-      <c r="AN25" s="5"/>
-      <c r="AO25" s="5"/>
-      <c r="AP25" s="5"/>
-      <c r="AQ25" s="5"/>
-      <c r="AR25" s="5"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:AR3"/>
@@ -4786,7 +3932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D13208E-9868-4EDC-A6F2-5604061DC568}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -4803,90 +3949,90 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
         <v>53</v>
-      </c>
-      <c r="B1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -5014,7 +4160,7 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -5025,7 +4171,7 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -5044,7 +4190,7 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -5074,7 +4220,7 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -5093,7 +4239,7 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -5115,7 +4261,7 @@
         <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -5145,24 +4291,24 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
         <v>70</v>
-      </c>
-      <c r="E1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -5176,10 +4322,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -5193,10 +4339,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -5207,13 +4353,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>7</v>
@@ -5224,13 +4370,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -5241,13 +4387,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>8</v>
@@ -5258,10 +4404,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -5272,10 +4418,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -5286,10 +4432,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -5300,10 +4446,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -5314,10 +4460,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -5328,13 +4474,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13">
         <v>7</v>
@@ -5345,13 +4491,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14">
         <v>6</v>
@@ -5362,10 +4508,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -5376,10 +4522,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16">
         <v>4</v>
@@ -5390,10 +4536,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -5413,7 +4559,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5426,16 +4572,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -5443,10 +4589,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" s="12">
         <v>72</v>
@@ -5454,13 +4600,13 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="12">
         <v>33</v>
@@ -5468,13 +4614,13 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" s="12">
         <v>39</v>
@@ -5482,10 +4628,10 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="12">
@@ -5494,10 +4640,10 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="12">
@@ -5506,10 +4652,10 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="12">
@@ -5518,10 +4664,10 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="12">

--- a/data/Diss.xlsx
+++ b/data/Diss.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qtckp\OneDrive\Рабочий стол\ScheduleGenetic\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF62475-E28E-4838-8C3B-6A10FA5017B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C8D52C-8604-4E67-ADDE-BB0CB841CB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{2515F797-AE4E-4146-B81A-561A40094389}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{2515F797-AE4E-4146-B81A-561A40094389}"/>
   </bookViews>
   <sheets>
     <sheet name="Timeslots" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="79">
   <si>
     <t>Номер</t>
   </si>
@@ -157,6 +157,102 @@
     <t>Предмет_8</t>
   </si>
   <si>
+    <t>Тип</t>
+  </si>
+  <si>
+    <t>Лекция</t>
+  </si>
+  <si>
+    <t>Семинар</t>
+  </si>
+  <si>
+    <t>Практика</t>
+  </si>
+  <si>
+    <t>Требования к ауд</t>
+  </si>
+  <si>
+    <t>ЭВМ, Проектор</t>
+  </si>
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Дисциплины</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Код группы </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Название </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кол-во студ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Группа_1, Группа_2 </t>
+  </si>
+  <si>
+    <t>Группа_1</t>
+  </si>
+  <si>
+    <t>Группа_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Группа_2_2 (2/2) </t>
+  </si>
+  <si>
+    <t>Сложность (1-10)</t>
+  </si>
+  <si>
+    <t>Кол-во занятий в неделю</t>
+  </si>
+  <si>
+    <t>Содержит</t>
+  </si>
+  <si>
+    <t>Проектор, ЭВМ</t>
+  </si>
+  <si>
+    <t>Предмет_3; Предмет_5;</t>
+  </si>
+  <si>
+    <t>Acc_3</t>
+  </si>
+  <si>
+    <t>Предмет_4; Предмет_7; Предмет_4;</t>
+  </si>
+  <si>
+    <t>Предмет_6; Предмет_4;</t>
+  </si>
+  <si>
+    <t>Предмет_8; Предмет_3; Предмет_2;</t>
+  </si>
+  <si>
+    <t>Предмет_7; Предмет_3;</t>
+  </si>
+  <si>
+    <t>Предмет_5; Предмет_2;</t>
+  </si>
+  <si>
+    <t>2 3</t>
+  </si>
+  <si>
+    <t>4 5</t>
+  </si>
+  <si>
+    <t>6 7</t>
+  </si>
+  <si>
+    <t>Группа_1_1 (1/1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Группа_1_2 (1/2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Группа_2_1 (2/1) </t>
+  </si>
+  <si>
     <t>Предмет_9</t>
   </si>
   <si>
@@ -169,118 +265,19 @@
     <t>Предмет_12</t>
   </si>
   <si>
-    <t>Предмет_13</t>
-  </si>
-  <si>
-    <t>Предмет_14</t>
-  </si>
-  <si>
-    <t>Тип</t>
-  </si>
-  <si>
-    <t>Лекция</t>
-  </si>
-  <si>
-    <t>Семинар</t>
-  </si>
-  <si>
-    <t>Практика</t>
-  </si>
-  <si>
-    <t>Предмет_15</t>
-  </si>
-  <si>
-    <t>Предмет_16</t>
-  </si>
-  <si>
-    <t>Требования к ауд</t>
-  </si>
-  <si>
-    <t>ЭВМ, Проектор</t>
-  </si>
-  <si>
-    <t>Имя</t>
-  </si>
-  <si>
-    <t>Дисциплины</t>
+    <t>Предмет_2; Предмет_4; Предмет_9;</t>
+  </si>
+  <si>
+    <t>Предмет_5; Предмет_10; Предмет_6;</t>
+  </si>
+  <si>
+    <t>Предмет_6; Предмет_11;</t>
+  </si>
+  <si>
+    <t>Предмет_2; Предмет_12;</t>
   </si>
   <si>
     <t>Предмет_1; Предмет_3; Предмет_7;</t>
-  </si>
-  <si>
-    <t>Предмет_2; Предмет_4; Предмет_8;</t>
-  </si>
-  <si>
-    <t>Предмет_5; Предмет_9;</t>
-  </si>
-  <si>
-    <t>Предмет_6; Предмет_10;</t>
-  </si>
-  <si>
-    <t>Предмет_14; Предмет_16;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Код группы </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Название </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кол-во студ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Группа_1, Группа_2 </t>
-  </si>
-  <si>
-    <t>Группа_1</t>
-  </si>
-  <si>
-    <t>Группа_2</t>
-  </si>
-  <si>
-    <t>Группа_1_1 (1/2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Группа_1_2 (2/2) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Группа_2_2 (1/2) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Группа_2_2 (2/2) </t>
-  </si>
-  <si>
-    <t>Сложность (1-10)</t>
-  </si>
-  <si>
-    <t>Кол-во занятий в неделю</t>
-  </si>
-  <si>
-    <t>Содержит</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 12 </t>
-  </si>
-  <si>
-    <t>9 10</t>
-  </si>
-  <si>
-    <t>13 14</t>
-  </si>
-  <si>
-    <t>Предмет_11; Предмет_12;</t>
-  </si>
-  <si>
-    <t>Предмет_12; Предмет_2;</t>
-  </si>
-  <si>
-    <t>Предмет_16; Предмет_15;</t>
-  </si>
-  <si>
-    <t>Предмет_15; Предмет_1;</t>
-  </si>
-  <si>
-    <t>Предмет_9; Предмет_13;</t>
   </si>
 </sst>
 </file>
@@ -325,7 +322,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -409,11 +406,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -435,6 +443,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -768,7 +785,7 @@
   <dimension ref="A2:AY72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,15 +798,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1436,60 +1453,60 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58892A55-97DB-4403-ABE2-988E9CF016E5}">
-  <dimension ref="B3:AR15"/>
+  <dimension ref="B3:AR16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="15"/>
-      <c r="AF3" s="15"/>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
-      <c r="AI3" s="15"/>
-      <c r="AJ3" s="15"/>
-      <c r="AK3" s="15"/>
-      <c r="AL3" s="15"/>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="15"/>
-      <c r="AO3" s="15"/>
-      <c r="AP3" s="15"/>
-      <c r="AQ3" s="15"/>
-      <c r="AR3" s="15"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="18"/>
+      <c r="AJ3" s="18"/>
+      <c r="AK3" s="18"/>
+      <c r="AL3" s="18"/>
+      <c r="AM3" s="18"/>
+      <c r="AN3" s="18"/>
+      <c r="AO3" s="18"/>
+      <c r="AP3" s="18"/>
+      <c r="AQ3" s="18"/>
+      <c r="AR3" s="18"/>
     </row>
     <row r="4" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
@@ -2105,7 +2122,7 @@
       <c r="AR14" s="5"/>
     </row>
     <row r="15" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="5"/>
@@ -2153,6 +2170,53 @@
       <c r="AQ15" s="5"/>
       <c r="AR15" s="5"/>
     </row>
+    <row r="16" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B16" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="5"/>
+      <c r="AN16" s="5"/>
+      <c r="AO16" s="5"/>
+      <c r="AP16" s="5"/>
+      <c r="AQ16" s="5"/>
+      <c r="AR16" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:AR3"/>
@@ -2166,57 +2230,57 @@
   <dimension ref="B2:AR24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+      <selection activeCell="AN19" sqref="AN19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="17"/>
-      <c r="AK2" s="17"/>
-      <c r="AL2" s="17"/>
-      <c r="AM2" s="17"/>
-      <c r="AN2" s="17"/>
-      <c r="AO2" s="17"/>
-      <c r="AP2" s="17"/>
-      <c r="AQ2" s="17"/>
-      <c r="AR2" s="18"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="21"/>
     </row>
     <row r="3" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
@@ -2448,6 +2512,1156 @@
     <row r="6" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B6" s="6">
         <v>2</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="5"/>
+      <c r="AQ6" s="5"/>
+      <c r="AR6" s="5"/>
+    </row>
+    <row r="7" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B7" s="6">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="5"/>
+      <c r="AQ7" s="5"/>
+      <c r="AR7" s="5"/>
+    </row>
+    <row r="8" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="5"/>
+      <c r="AQ8" s="5"/>
+      <c r="AR8" s="5"/>
+    </row>
+    <row r="9" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B9" s="6">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="5"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="5"/>
+      <c r="AQ9" s="5"/>
+      <c r="AR9" s="5"/>
+    </row>
+    <row r="10" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B10" s="6">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="5"/>
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="5"/>
+      <c r="AQ10" s="5"/>
+      <c r="AR10" s="5"/>
+    </row>
+    <row r="11" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B11" s="6">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="5"/>
+      <c r="AQ11" s="5"/>
+      <c r="AR11" s="5"/>
+    </row>
+    <row r="12" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B12" s="6">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="5"/>
+      <c r="AP12" s="5"/>
+      <c r="AQ12" s="5"/>
+      <c r="AR12" s="5"/>
+    </row>
+    <row r="13" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B13" s="6">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="5"/>
+      <c r="AN13" s="5"/>
+      <c r="AO13" s="5"/>
+      <c r="AP13" s="5"/>
+      <c r="AQ13" s="5"/>
+      <c r="AR13" s="5"/>
+    </row>
+    <row r="14" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B14" s="6">
+        <v>10</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="5"/>
+      <c r="AN14" s="5"/>
+      <c r="AO14" s="5"/>
+      <c r="AP14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="5"/>
+      <c r="AR14" s="5"/>
+    </row>
+    <row r="15" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B15" s="6">
+        <v>11</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="5"/>
+      <c r="AN15" s="5"/>
+      <c r="AO15" s="5"/>
+      <c r="AP15" s="5"/>
+      <c r="AQ15" s="5"/>
+      <c r="AR15" s="5"/>
+    </row>
+    <row r="16" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B16" s="6">
+        <v>12</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="5"/>
+      <c r="AN16" s="5"/>
+      <c r="AO16" s="5"/>
+      <c r="AP16" s="5"/>
+      <c r="AQ16" s="5"/>
+      <c r="AR16" s="5"/>
+    </row>
+    <row r="17" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B17" s="6">
+        <v>13</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5">
+        <v>0</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="5"/>
+      <c r="AN17" s="5"/>
+      <c r="AO17" s="5"/>
+      <c r="AP17" s="5"/>
+      <c r="AQ17" s="5"/>
+      <c r="AR17" s="5"/>
+    </row>
+    <row r="18" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B18" s="6">
+        <v>14</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5"/>
+      <c r="AN18" s="5"/>
+      <c r="AO18" s="5"/>
+      <c r="AP18" s="5"/>
+      <c r="AQ18" s="5"/>
+      <c r="AR18" s="5"/>
+    </row>
+    <row r="19" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B19" s="6">
+        <v>15</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+      <c r="AN19" s="5"/>
+      <c r="AO19" s="5"/>
+      <c r="AP19" s="5"/>
+      <c r="AQ19" s="5"/>
+      <c r="AR19" s="5"/>
+    </row>
+    <row r="20" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B20" s="6">
+        <v>16</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="5"/>
+      <c r="AO20" s="5"/>
+      <c r="AP20" s="5"/>
+      <c r="AQ20" s="5"/>
+      <c r="AR20" s="5"/>
+    </row>
+    <row r="21" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B21" s="6">
+        <v>17</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="5"/>
+      <c r="AO21" s="5"/>
+      <c r="AP21" s="5"/>
+      <c r="AQ21" s="5"/>
+      <c r="AR21" s="5"/>
+    </row>
+    <row r="22" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B22" s="6">
+        <v>18</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="5"/>
+      <c r="AO22" s="5"/>
+      <c r="AP22" s="5"/>
+      <c r="AQ22" s="5"/>
+      <c r="AR22" s="5"/>
+    </row>
+    <row r="23" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B23" s="6">
+        <v>19</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
+      <c r="AN23" s="5"/>
+      <c r="AO23" s="5"/>
+      <c r="AP23" s="5"/>
+      <c r="AQ23" s="5"/>
+      <c r="AR23" s="5"/>
+    </row>
+    <row r="24" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B24" s="6">
+        <v>20</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+      <c r="AN24" s="5"/>
+      <c r="AO24" s="5"/>
+      <c r="AP24" s="5"/>
+      <c r="AQ24" s="5"/>
+      <c r="AR24" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:AR2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC32F5DF-50E3-4F6E-8306-2CB8A2B75C8A}">
+  <dimension ref="B3:AR12"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="20"/>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="20"/>
+      <c r="AM3" s="20"/>
+      <c r="AN3" s="20"/>
+      <c r="AO3" s="20"/>
+      <c r="AP3" s="20"/>
+      <c r="AQ3" s="20"/>
+      <c r="AR3" s="21"/>
+    </row>
+    <row r="4" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="10"/>
+      <c r="AO4" s="10"/>
+      <c r="AP4" s="10"/>
+      <c r="AQ4" s="10"/>
+      <c r="AR4" s="11"/>
+    </row>
+    <row r="5" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5">
+        <v>5</v>
+      </c>
+      <c r="H5" s="5">
+        <v>6</v>
+      </c>
+      <c r="I5" s="5">
+        <v>7</v>
+      </c>
+      <c r="J5" s="5">
+        <v>8</v>
+      </c>
+      <c r="K5" s="5">
+        <v>9</v>
+      </c>
+      <c r="L5" s="5">
+        <v>10</v>
+      </c>
+      <c r="M5" s="5">
+        <v>11</v>
+      </c>
+      <c r="N5" s="5">
+        <v>12</v>
+      </c>
+      <c r="O5" s="5">
+        <v>13</v>
+      </c>
+      <c r="P5" s="5">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>15</v>
+      </c>
+      <c r="R5" s="5">
+        <v>16</v>
+      </c>
+      <c r="S5" s="5">
+        <v>17</v>
+      </c>
+      <c r="T5" s="5">
+        <v>18</v>
+      </c>
+      <c r="U5" s="5">
+        <v>19</v>
+      </c>
+      <c r="V5" s="5">
+        <v>20</v>
+      </c>
+      <c r="W5" s="5">
+        <v>21</v>
+      </c>
+      <c r="X5" s="5">
+        <v>22</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>23</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>24</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>25</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>26</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>27</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>28</v>
+      </c>
+      <c r="AE5" s="5">
+        <v>29</v>
+      </c>
+      <c r="AF5" s="5">
+        <v>30</v>
+      </c>
+      <c r="AG5" s="5">
+        <v>31</v>
+      </c>
+      <c r="AH5" s="5">
+        <v>32</v>
+      </c>
+      <c r="AI5" s="5">
+        <v>33</v>
+      </c>
+      <c r="AJ5" s="5">
+        <v>34</v>
+      </c>
+      <c r="AK5" s="5">
+        <v>35</v>
+      </c>
+      <c r="AL5" s="5">
+        <v>36</v>
+      </c>
+      <c r="AM5" s="5">
+        <v>37</v>
+      </c>
+      <c r="AN5" s="5">
+        <v>38</v>
+      </c>
+      <c r="AO5" s="5">
+        <v>39</v>
+      </c>
+      <c r="AP5" s="5">
+        <v>40</v>
+      </c>
+      <c r="AQ5" s="5">
+        <v>41</v>
+      </c>
+      <c r="AR5" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
+        <v>1</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -2494,7 +3708,7 @@
     </row>
     <row r="7" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -2541,7 +3755,7 @@
     </row>
     <row r="8" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -2588,7 +3802,7 @@
     </row>
     <row r="9" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -2635,7 +3849,7 @@
     </row>
     <row r="10" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -2682,15 +3896,13 @@
     </row>
     <row r="11" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="5">
-        <v>0</v>
-      </c>
+      <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -2731,7 +3943,7 @@
     </row>
     <row r="12" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -2776,1150 +3988,6 @@
       <c r="AQ12" s="5"/>
       <c r="AR12" s="5"/>
     </row>
-    <row r="13" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B13" s="6">
-        <v>9</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="5"/>
-      <c r="AG13" s="5"/>
-      <c r="AH13" s="5"/>
-      <c r="AI13" s="5"/>
-      <c r="AJ13" s="5"/>
-      <c r="AK13" s="5"/>
-      <c r="AL13" s="5"/>
-      <c r="AM13" s="5"/>
-      <c r="AN13" s="5"/>
-      <c r="AO13" s="5"/>
-      <c r="AP13" s="5"/>
-      <c r="AQ13" s="5"/>
-      <c r="AR13" s="5"/>
-    </row>
-    <row r="14" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B14" s="6">
-        <v>10</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="5"/>
-      <c r="AG14" s="5"/>
-      <c r="AH14" s="5"/>
-      <c r="AI14" s="5"/>
-      <c r="AJ14" s="5"/>
-      <c r="AK14" s="5"/>
-      <c r="AL14" s="5"/>
-      <c r="AM14" s="5"/>
-      <c r="AN14" s="5"/>
-      <c r="AO14" s="5"/>
-      <c r="AP14" s="5"/>
-      <c r="AQ14" s="5"/>
-      <c r="AR14" s="5"/>
-    </row>
-    <row r="15" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B15" s="6">
-        <v>11</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="5"/>
-      <c r="AF15" s="5"/>
-      <c r="AG15" s="5"/>
-      <c r="AH15" s="5"/>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="5"/>
-      <c r="AK15" s="5"/>
-      <c r="AL15" s="5"/>
-      <c r="AM15" s="5"/>
-      <c r="AN15" s="5"/>
-      <c r="AO15" s="5"/>
-      <c r="AP15" s="5"/>
-      <c r="AQ15" s="5"/>
-      <c r="AR15" s="5"/>
-    </row>
-    <row r="16" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B16" s="6">
-        <v>12</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="5"/>
-      <c r="AF16" s="5"/>
-      <c r="AG16" s="5"/>
-      <c r="AH16" s="5"/>
-      <c r="AI16" s="5"/>
-      <c r="AJ16" s="5"/>
-      <c r="AK16" s="5"/>
-      <c r="AL16" s="5"/>
-      <c r="AM16" s="5"/>
-      <c r="AN16" s="5"/>
-      <c r="AO16" s="5"/>
-      <c r="AP16" s="5"/>
-      <c r="AQ16" s="5"/>
-      <c r="AR16" s="5"/>
-    </row>
-    <row r="17" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B17" s="6">
-        <v>13</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5">
-        <v>0</v>
-      </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5">
-        <v>0</v>
-      </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="5"/>
-      <c r="AF17" s="5"/>
-      <c r="AG17" s="5"/>
-      <c r="AH17" s="5"/>
-      <c r="AI17" s="5"/>
-      <c r="AJ17" s="5"/>
-      <c r="AK17" s="5"/>
-      <c r="AL17" s="5"/>
-      <c r="AM17" s="5"/>
-      <c r="AN17" s="5"/>
-      <c r="AO17" s="5"/>
-      <c r="AP17" s="5"/>
-      <c r="AQ17" s="5"/>
-      <c r="AR17" s="5"/>
-    </row>
-    <row r="18" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B18" s="6">
-        <v>14</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
-      <c r="AD18" s="5"/>
-      <c r="AE18" s="5"/>
-      <c r="AF18" s="5"/>
-      <c r="AG18" s="5"/>
-      <c r="AH18" s="5"/>
-      <c r="AI18" s="5"/>
-      <c r="AJ18" s="5"/>
-      <c r="AK18" s="5"/>
-      <c r="AL18" s="5"/>
-      <c r="AM18" s="5"/>
-      <c r="AN18" s="5"/>
-      <c r="AO18" s="5"/>
-      <c r="AP18" s="5"/>
-      <c r="AQ18" s="5"/>
-      <c r="AR18" s="5"/>
-    </row>
-    <row r="19" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B19" s="6">
-        <v>15</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="5"/>
-      <c r="AF19" s="5"/>
-      <c r="AG19" s="5"/>
-      <c r="AH19" s="5"/>
-      <c r="AI19" s="5"/>
-      <c r="AJ19" s="5"/>
-      <c r="AK19" s="5"/>
-      <c r="AL19" s="5"/>
-      <c r="AM19" s="5"/>
-      <c r="AN19" s="5"/>
-      <c r="AO19" s="5"/>
-      <c r="AP19" s="5"/>
-      <c r="AQ19" s="5"/>
-      <c r="AR19" s="5"/>
-    </row>
-    <row r="20" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B20" s="6">
-        <v>16</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="5"/>
-      <c r="AF20" s="5"/>
-      <c r="AG20" s="5"/>
-      <c r="AH20" s="5"/>
-      <c r="AI20" s="5"/>
-      <c r="AJ20" s="5"/>
-      <c r="AK20" s="5"/>
-      <c r="AL20" s="5"/>
-      <c r="AM20" s="5"/>
-      <c r="AN20" s="5"/>
-      <c r="AO20" s="5"/>
-      <c r="AP20" s="5"/>
-      <c r="AQ20" s="5"/>
-      <c r="AR20" s="5"/>
-    </row>
-    <row r="21" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B21" s="6">
-        <v>17</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="5"/>
-      <c r="AD21" s="5"/>
-      <c r="AE21" s="5"/>
-      <c r="AF21" s="5"/>
-      <c r="AG21" s="5"/>
-      <c r="AH21" s="5"/>
-      <c r="AI21" s="5"/>
-      <c r="AJ21" s="5"/>
-      <c r="AK21" s="5"/>
-      <c r="AL21" s="5"/>
-      <c r="AM21" s="5"/>
-      <c r="AN21" s="5"/>
-      <c r="AO21" s="5"/>
-      <c r="AP21" s="5"/>
-      <c r="AQ21" s="5"/>
-      <c r="AR21" s="5"/>
-    </row>
-    <row r="22" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B22" s="6">
-        <v>18</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="5"/>
-      <c r="AD22" s="5"/>
-      <c r="AE22" s="5"/>
-      <c r="AF22" s="5"/>
-      <c r="AG22" s="5"/>
-      <c r="AH22" s="5"/>
-      <c r="AI22" s="5"/>
-      <c r="AJ22" s="5"/>
-      <c r="AK22" s="5"/>
-      <c r="AL22" s="5"/>
-      <c r="AM22" s="5"/>
-      <c r="AN22" s="5"/>
-      <c r="AO22" s="5"/>
-      <c r="AP22" s="5"/>
-      <c r="AQ22" s="5"/>
-      <c r="AR22" s="5"/>
-    </row>
-    <row r="23" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B23" s="6">
-        <v>19</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="5"/>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="5"/>
-      <c r="AF23" s="5"/>
-      <c r="AG23" s="5"/>
-      <c r="AH23" s="5"/>
-      <c r="AI23" s="5"/>
-      <c r="AJ23" s="5"/>
-      <c r="AK23" s="5"/>
-      <c r="AL23" s="5"/>
-      <c r="AM23" s="5"/>
-      <c r="AN23" s="5"/>
-      <c r="AO23" s="5"/>
-      <c r="AP23" s="5"/>
-      <c r="AQ23" s="5"/>
-      <c r="AR23" s="5"/>
-    </row>
-    <row r="24" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B24" s="6">
-        <v>20</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="5"/>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="5"/>
-      <c r="AF24" s="5"/>
-      <c r="AG24" s="5"/>
-      <c r="AH24" s="5"/>
-      <c r="AI24" s="5"/>
-      <c r="AJ24" s="5"/>
-      <c r="AK24" s="5"/>
-      <c r="AL24" s="5"/>
-      <c r="AM24" s="5"/>
-      <c r="AN24" s="5"/>
-      <c r="AO24" s="5"/>
-      <c r="AP24" s="5"/>
-      <c r="AQ24" s="5"/>
-      <c r="AR24" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:AR2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC32F5DF-50E3-4F6E-8306-2CB8A2B75C8A}">
-  <dimension ref="B3:AR12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="3" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="17"/>
-      <c r="AE3" s="17"/>
-      <c r="AF3" s="17"/>
-      <c r="AG3" s="17"/>
-      <c r="AH3" s="17"/>
-      <c r="AI3" s="17"/>
-      <c r="AJ3" s="17"/>
-      <c r="AK3" s="17"/>
-      <c r="AL3" s="17"/>
-      <c r="AM3" s="17"/>
-      <c r="AN3" s="17"/>
-      <c r="AO3" s="17"/>
-      <c r="AP3" s="17"/>
-      <c r="AQ3" s="17"/>
-      <c r="AR3" s="18"/>
-    </row>
-    <row r="4" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="C4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="10"/>
-      <c r="AI4" s="10"/>
-      <c r="AJ4" s="10"/>
-      <c r="AK4" s="10"/>
-      <c r="AL4" s="10"/>
-      <c r="AM4" s="10"/>
-      <c r="AN4" s="10"/>
-      <c r="AO4" s="10"/>
-      <c r="AP4" s="10"/>
-      <c r="AQ4" s="10"/>
-      <c r="AR4" s="11"/>
-    </row>
-    <row r="5" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5">
-        <v>2</v>
-      </c>
-      <c r="E5" s="5">
-        <v>3</v>
-      </c>
-      <c r="F5" s="5">
-        <v>4</v>
-      </c>
-      <c r="G5" s="5">
-        <v>5</v>
-      </c>
-      <c r="H5" s="5">
-        <v>6</v>
-      </c>
-      <c r="I5" s="5">
-        <v>7</v>
-      </c>
-      <c r="J5" s="5">
-        <v>8</v>
-      </c>
-      <c r="K5" s="5">
-        <v>9</v>
-      </c>
-      <c r="L5" s="5">
-        <v>10</v>
-      </c>
-      <c r="M5" s="5">
-        <v>11</v>
-      </c>
-      <c r="N5" s="5">
-        <v>12</v>
-      </c>
-      <c r="O5" s="5">
-        <v>13</v>
-      </c>
-      <c r="P5" s="5">
-        <v>14</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>15</v>
-      </c>
-      <c r="R5" s="5">
-        <v>16</v>
-      </c>
-      <c r="S5" s="5">
-        <v>17</v>
-      </c>
-      <c r="T5" s="5">
-        <v>18</v>
-      </c>
-      <c r="U5" s="5">
-        <v>19</v>
-      </c>
-      <c r="V5" s="5">
-        <v>20</v>
-      </c>
-      <c r="W5" s="5">
-        <v>21</v>
-      </c>
-      <c r="X5" s="5">
-        <v>22</v>
-      </c>
-      <c r="Y5" s="5">
-        <v>23</v>
-      </c>
-      <c r="Z5" s="5">
-        <v>24</v>
-      </c>
-      <c r="AA5" s="5">
-        <v>25</v>
-      </c>
-      <c r="AB5" s="5">
-        <v>26</v>
-      </c>
-      <c r="AC5" s="5">
-        <v>27</v>
-      </c>
-      <c r="AD5" s="5">
-        <v>28</v>
-      </c>
-      <c r="AE5" s="5">
-        <v>29</v>
-      </c>
-      <c r="AF5" s="5">
-        <v>30</v>
-      </c>
-      <c r="AG5" s="5">
-        <v>31</v>
-      </c>
-      <c r="AH5" s="5">
-        <v>32</v>
-      </c>
-      <c r="AI5" s="5">
-        <v>33</v>
-      </c>
-      <c r="AJ5" s="5">
-        <v>34</v>
-      </c>
-      <c r="AK5" s="5">
-        <v>35</v>
-      </c>
-      <c r="AL5" s="5">
-        <v>36</v>
-      </c>
-      <c r="AM5" s="5">
-        <v>37</v>
-      </c>
-      <c r="AN5" s="5">
-        <v>38</v>
-      </c>
-      <c r="AO5" s="5">
-        <v>39</v>
-      </c>
-      <c r="AP5" s="5">
-        <v>40</v>
-      </c>
-      <c r="AQ5" s="5">
-        <v>41</v>
-      </c>
-      <c r="AR5" s="5">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
-      <c r="AG6" s="5"/>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="5"/>
-      <c r="AM6" s="5"/>
-      <c r="AN6" s="5"/>
-      <c r="AO6" s="5"/>
-      <c r="AP6" s="5"/>
-      <c r="AQ6" s="5"/>
-      <c r="AR6" s="5"/>
-    </row>
-    <row r="7" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B7" s="6">
-        <v>2</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="5"/>
-      <c r="AH7" s="5"/>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="5"/>
-      <c r="AM7" s="5"/>
-      <c r="AN7" s="5"/>
-      <c r="AO7" s="5"/>
-      <c r="AP7" s="5"/>
-      <c r="AQ7" s="5"/>
-      <c r="AR7" s="5"/>
-    </row>
-    <row r="8" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
-        <v>3</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="5"/>
-      <c r="AM8" s="5"/>
-      <c r="AN8" s="5"/>
-      <c r="AO8" s="5"/>
-      <c r="AP8" s="5"/>
-      <c r="AQ8" s="5"/>
-      <c r="AR8" s="5"/>
-    </row>
-    <row r="9" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B9" s="6">
-        <v>4</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="5"/>
-      <c r="AG9" s="5"/>
-      <c r="AH9" s="5"/>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="5"/>
-      <c r="AK9" s="5"/>
-      <c r="AL9" s="5"/>
-      <c r="AM9" s="5"/>
-      <c r="AN9" s="5"/>
-      <c r="AO9" s="5"/>
-      <c r="AP9" s="5"/>
-      <c r="AQ9" s="5"/>
-      <c r="AR9" s="5"/>
-    </row>
-    <row r="10" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B10" s="6">
-        <v>5</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="5"/>
-      <c r="AF10" s="5"/>
-      <c r="AG10" s="5"/>
-      <c r="AH10" s="5"/>
-      <c r="AI10" s="5"/>
-      <c r="AJ10" s="5"/>
-      <c r="AK10" s="5"/>
-      <c r="AL10" s="5"/>
-      <c r="AM10" s="5"/>
-      <c r="AN10" s="5"/>
-      <c r="AO10" s="5"/>
-      <c r="AP10" s="5"/>
-      <c r="AQ10" s="5"/>
-      <c r="AR10" s="5"/>
-    </row>
-    <row r="11" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B11" s="6">
-        <v>6</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="5"/>
-      <c r="AE11" s="5"/>
-      <c r="AF11" s="5"/>
-      <c r="AG11" s="5"/>
-      <c r="AH11" s="5"/>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5"/>
-      <c r="AK11" s="5"/>
-      <c r="AL11" s="5"/>
-      <c r="AM11" s="5"/>
-      <c r="AN11" s="5"/>
-      <c r="AO11" s="5"/>
-      <c r="AP11" s="5"/>
-      <c r="AQ11" s="5"/>
-      <c r="AR11" s="5"/>
-    </row>
-    <row r="12" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B12" s="6">
-        <v>7</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="5"/>
-      <c r="AH12" s="5"/>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="5"/>
-      <c r="AK12" s="5"/>
-      <c r="AL12" s="5"/>
-      <c r="AM12" s="5"/>
-      <c r="AN12" s="5"/>
-      <c r="AO12" s="5"/>
-      <c r="AP12" s="5"/>
-      <c r="AQ12" s="5"/>
-      <c r="AR12" s="5"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:AR3"/>
@@ -3930,10 +3998,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D13208E-9868-4EDC-A6F2-5604061DC568}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3949,10 +4017,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3960,7 +4028,7 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3968,7 +4036,7 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3976,7 +4044,7 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3984,7 +4052,7 @@
         <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3992,7 +4060,7 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4000,7 +4068,7 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -4008,7 +4076,7 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -4016,7 +4084,7 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -4024,7 +4092,7 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -4032,7 +4100,15 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -4045,7 +4121,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4084,7 +4160,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4105,6 +4181,9 @@
       <c r="B5">
         <v>100</v>
       </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -4122,7 +4201,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -4133,7 +4212,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4187,10 +4266,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -4211,6 +4290,9 @@
       <c r="B16">
         <v>33</v>
       </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -4258,10 +4340,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -4271,10 +4353,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA60CA1B-4627-421C-943F-9EE1C09A8558}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4291,16 +4373,16 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -4308,7 +4390,7 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -4325,7 +4407,7 @@
         <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -4342,7 +4424,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -4356,7 +4438,7 @@
         <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
@@ -4373,7 +4455,7 @@
         <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
@@ -4390,7 +4472,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -4407,7 +4489,7 @@
         <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -4421,7 +4503,7 @@
         <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -4432,10 +4514,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -4446,10 +4528,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
         <v>39</v>
-      </c>
-      <c r="B11" t="s">
-        <v>45</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -4460,10 +4542,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -4474,10 +4556,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" t="s">
         <v>41</v>
-      </c>
-      <c r="B13" t="s">
-        <v>47</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
@@ -4487,65 +4569,6 @@
       </c>
       <c r="E13">
         <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14">
-        <v>6</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4559,7 +4582,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4572,16 +4595,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -4589,10 +4612,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D2" s="12">
         <v>72</v>
@@ -4603,10 +4626,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D3" s="12">
         <v>33</v>
@@ -4617,10 +4640,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D4" s="12">
         <v>39</v>
@@ -4631,7 +4654,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="12">
@@ -4643,7 +4666,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="12">
@@ -4655,7 +4678,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="12">
@@ -4667,7 +4690,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="12">
